--- a/data/1_data.xlsx
+++ b/data/1_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james.tran\Desktop\Vy\VenessaVy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1431F728-CA3C-4C88-BCD1-ACE00AE3D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734C13AF-305C-4A7E-955B-3D24111B21E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1725" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Cau1</t>
   </si>
@@ -100,9 +100,6 @@
     <t>DapAnSuAnhHuongGiaCa</t>
   </si>
   <si>
-    <t>Sự ảnh hưởng của yếu tố "Sản phẩm"</t>
-  </si>
-  <si>
     <t>Sự ảnh hưởng của yếu tố</t>
   </si>
   <si>
@@ -164,6 +161,45 @@
   </si>
   <si>
     <t>Thu nhập sau thuế hàng tháng của bạn là bao nhiêu?</t>
+  </si>
+  <si>
+    <t>2,3,2,1,3,3</t>
+  </si>
+  <si>
+    <t>1,3,1,1,2,3</t>
+  </si>
+  <si>
+    <t>2,5,2,3,3</t>
+  </si>
+  <si>
+    <t>2,5,2,3</t>
+  </si>
+  <si>
+    <t>2,5,2,4</t>
+  </si>
+  <si>
+    <t>2,5,2,4,4</t>
+  </si>
+  <si>
+    <t>5,2,3,3</t>
+  </si>
+  <si>
+    <t>5,2,4,4</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Quảng cáo - Khuyến mại</t>
+  </si>
+  <si>
+    <t>Quốc gia - Xuất xứ</t>
+  </si>
+  <si>
+    <t>Chuẩn chủ quan</t>
+  </si>
+  <si>
+    <t>Kiến thức người tiêu dùng</t>
   </si>
 </sst>
 </file>
@@ -207,15 +243,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,7 +593,8 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,19 +631,19 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -631,52 +665,52 @@
         <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="173.25" x14ac:dyDescent="0.25">
@@ -701,83 +735,83 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>4</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1">
-        <v>2</v>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1">
-        <v>4</v>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="1">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="1">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="1">
         <v>1</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD2" s="1">
         <v>1</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="AH2" s="1">
         <v>1</v>
@@ -805,86 +839,86 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
+      <c r="H3" s="1">
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3">
-        <v>2</v>
+      <c r="J3" s="1">
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>4</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="1">
         <v>2</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="1">
-        <v>4</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="1">
-        <v>4</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="1">
-        <v>4</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="AF3" s="1">
         <v>1</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
